--- a/jpcore-r4/feature/swg5-インスタンス例を折りたためるようにする/StructureDefinition-jp-practitionerrole.xlsx
+++ b/jpcore-r4/feature/swg5-インスタンス例を折りたためるようにする/StructureDefinition-jp-practitionerrole.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="277">
   <si>
     <t>Property</t>
   </si>
@@ -562,7 +562,7 @@
     <t>PractitionerRole.practitioner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Practitioner)
 </t>
   </si>
   <si>
@@ -583,7 +583,7 @@
     <t>PractitionerRole.organization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Organization)
 </t>
   </si>
   <si>
@@ -632,13 +632,7 @@
 プラクティショナーがどのような権限を持っているのかを知る必要がある - 何ができるのか？</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>The role a person plays representing an organization.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/practitioner-role</t>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedurePerformerRoleCodes_VS</t>
   </si>
   <si>
     <t>PRD-1 / STF-18  / PRA-3  / PRT-4  / ROL-3 / ORC-12 / OBR-16 / PV1-7 / PV1-8 / PV1-9 / PV1-17</t>
@@ -681,7 +675,7 @@
     <t>PractitionerRole.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Location)
 </t>
   </si>
   <si>
@@ -1269,8 +1263,8 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="50.31640625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="43.75" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="43.25390625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="69.72265625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
@@ -3026,13 +3020,11 @@
         <v>76</v>
       </c>
       <c r="W16" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="X16" s="2"/>
+      <c r="Y16" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="X16" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="Y16" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>76</v>
@@ -3065,10 +3057,10 @@
         <v>98</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>170</v>
@@ -3079,7 +3071,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3105,13 +3097,13 @@
         <v>184</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3140,10 +3132,10 @@
         <v>110</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>76</v>
@@ -3161,7 +3153,7 @@
         <v>76</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>77</v>
@@ -3176,13 +3168,13 @@
         <v>98</v>
       </c>
       <c r="AJ17" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AL17" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>76</v>
@@ -3190,7 +3182,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3213,13 +3205,13 @@
         <v>87</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="K18" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="M18" t="s" s="2">
         <v>176</v>
@@ -3272,7 +3264,7 @@
         <v>76</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>77</v>
@@ -3290,18 +3282,18 @@
         <v>76</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AM18" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>209</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3324,13 +3316,13 @@
         <v>76</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="K19" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="M19" t="s" s="2">
         <v>176</v>
@@ -3383,7 +3375,7 @@
         <v>76</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
@@ -3398,10 +3390,10 @@
         <v>98</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>76</v>
@@ -3412,7 +3404,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3435,19 +3427,19 @@
         <v>87</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>76</v>
@@ -3496,7 +3488,7 @@
         <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
@@ -3514,7 +3506,7 @@
         <v>76</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>76</v>
@@ -3525,7 +3517,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3548,16 +3540,16 @@
         <v>76</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3607,7 +3599,7 @@
         <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -3625,7 +3617,7 @@
         <v>76</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>76</v>
@@ -3636,7 +3628,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3662,10 +3654,10 @@
         <v>88</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3716,7 +3708,7 @@
         <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
@@ -3734,7 +3726,7 @@
         <v>76</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>76</v>
@@ -3745,7 +3737,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3774,7 +3766,7 @@
         <v>133</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="M23" t="s" s="2">
         <v>135</v>
@@ -3827,7 +3819,7 @@
         <v>76</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -3845,7 +3837,7 @@
         <v>76</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>76</v>
@@ -3856,11 +3848,11 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -3882,10 +3874,10 @@
         <v>132</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M24" t="s" s="2">
         <v>135</v>
@@ -3940,7 +3932,7 @@
         <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -3969,7 +3961,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3995,10 +3987,10 @@
         <v>106</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4025,14 +4017,14 @@
         <v>76</v>
       </c>
       <c r="W25" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="Y25" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="X25" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>247</v>
-      </c>
       <c r="Z25" t="s" s="2">
         <v>76</v>
       </c>
@@ -4049,7 +4041,7 @@
         <v>76</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -4067,7 +4059,7 @@
         <v>76</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>76</v>
@@ -4078,7 +4070,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4104,10 +4096,10 @@
         <v>153</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4158,7 +4150,7 @@
         <v>76</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -4176,7 +4168,7 @@
         <v>76</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>76</v>
@@ -4187,7 +4179,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4210,16 +4202,16 @@
         <v>76</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4269,7 +4261,7 @@
         <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -4287,7 +4279,7 @@
         <v>76</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>76</v>
@@ -4298,7 +4290,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4321,16 +4313,16 @@
         <v>76</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4380,7 +4372,7 @@
         <v>76</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -4398,7 +4390,7 @@
         <v>76</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>76</v>
@@ -4409,7 +4401,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4432,13 +4424,13 @@
         <v>76</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4489,7 +4481,7 @@
         <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -4507,7 +4499,7 @@
         <v>76</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>76</v>
@@ -4518,7 +4510,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4544,10 +4536,10 @@
         <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4598,7 +4590,7 @@
         <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -4616,7 +4608,7 @@
         <v>76</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>76</v>
@@ -4627,7 +4619,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4656,7 +4648,7 @@
         <v>133</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="M31" t="s" s="2">
         <v>135</v>
@@ -4709,7 +4701,7 @@
         <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -4727,7 +4719,7 @@
         <v>76</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>76</v>
@@ -4738,11 +4730,11 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -4764,10 +4756,10 @@
         <v>132</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M32" t="s" s="2">
         <v>135</v>
@@ -4822,7 +4814,7 @@
         <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -4851,7 +4843,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4877,10 +4869,10 @@
         <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4931,7 +4923,7 @@
         <v>76</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>86</v>
@@ -4949,7 +4941,7 @@
         <v>76</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>76</v>
@@ -4960,7 +4952,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4986,10 +4978,10 @@
         <v>163</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5040,7 +5032,7 @@
         <v>76</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -5058,7 +5050,7 @@
         <v>76</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>76</v>
@@ -5069,7 +5061,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5095,10 +5087,10 @@
         <v>88</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5149,7 +5141,7 @@
         <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -5167,7 +5159,7 @@
         <v>76</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>76</v>
@@ -5178,7 +5170,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5201,19 +5193,19 @@
         <v>76</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="K36" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="M36" t="s" s="2">
         <v>176</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>76</v>
@@ -5262,7 +5254,7 @@
         <v>76</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -5280,7 +5272,7 @@
         <v>76</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>76</v>
